--- a/data/processed/4th/MASTER_human-eval_4th.xlsx
+++ b/data/processed/4th/MASTER_human-eval_4th.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t xml:space="preserve">Article not about coalition breakdown at all, finds one mentions in a quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satirical</t>
   </si>
 </sst>
 </file>
@@ -9552,6 +9555,386 @@
         <v>102</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" t="n">
+        <v>59</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" t="s">
+        <v>25</v>
+      </c>
+      <c r="I139" t="s">
+        <v>39</v>
+      </c>
+      <c r="J139" t="s">
+        <v>39</v>
+      </c>
+      <c r="K139" t="s">
+        <v>25</v>
+      </c>
+      <c r="L139" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" t="s">
+        <v>24</v>
+      </c>
+      <c r="N139" t="s">
+        <v>25</v>
+      </c>
+      <c r="O139" t="s">
+        <v>25</v>
+      </c>
+      <c r="P139" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>25</v>
+      </c>
+      <c r="R139" t="s">
+        <v>25</v>
+      </c>
+      <c r="S139" t="s">
+        <v>25</v>
+      </c>
+      <c r="T139"/>
+      <c r="U139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" t="n">
+        <v>60</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" t="s">
+        <v>39</v>
+      </c>
+      <c r="J140" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140" t="s">
+        <v>25</v>
+      </c>
+      <c r="L140" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" t="s">
+        <v>24</v>
+      </c>
+      <c r="N140" t="s">
+        <v>25</v>
+      </c>
+      <c r="O140" t="s">
+        <v>25</v>
+      </c>
+      <c r="P140" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>25</v>
+      </c>
+      <c r="R140" t="s">
+        <v>25</v>
+      </c>
+      <c r="S140" t="s">
+        <v>25</v>
+      </c>
+      <c r="T140"/>
+      <c r="U140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" t="n">
+        <v>132</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" t="s">
+        <v>26</v>
+      </c>
+      <c r="J141" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" t="s">
+        <v>26</v>
+      </c>
+      <c r="L141" t="s">
+        <v>26</v>
+      </c>
+      <c r="M141" t="s">
+        <v>26</v>
+      </c>
+      <c r="N141" t="s">
+        <v>26</v>
+      </c>
+      <c r="O141" t="s">
+        <v>26</v>
+      </c>
+      <c r="P141" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>26</v>
+      </c>
+      <c r="R141" t="s">
+        <v>26</v>
+      </c>
+      <c r="S141" t="s">
+        <v>26</v>
+      </c>
+      <c r="T141" t="s">
+        <v>153</v>
+      </c>
+      <c r="U141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" t="n">
+        <v>93</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s">
+        <v>26</v>
+      </c>
+      <c r="J142" t="s">
+        <v>26</v>
+      </c>
+      <c r="K142" t="s">
+        <v>26</v>
+      </c>
+      <c r="L142" t="s">
+        <v>26</v>
+      </c>
+      <c r="M142" t="s">
+        <v>26</v>
+      </c>
+      <c r="N142" t="s">
+        <v>26</v>
+      </c>
+      <c r="O142" t="s">
+        <v>26</v>
+      </c>
+      <c r="P142" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>26</v>
+      </c>
+      <c r="R142" t="s">
+        <v>26</v>
+      </c>
+      <c r="S142" t="s">
+        <v>26</v>
+      </c>
+      <c r="T142"/>
+      <c r="U142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="n">
+        <v>156</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143" t="s">
+        <v>25</v>
+      </c>
+      <c r="J143" t="s">
+        <v>25</v>
+      </c>
+      <c r="K143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" t="s">
+        <v>25</v>
+      </c>
+      <c r="O143" t="s">
+        <v>25</v>
+      </c>
+      <c r="P143" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>25</v>
+      </c>
+      <c r="R143" t="s">
+        <v>25</v>
+      </c>
+      <c r="S143" t="s">
+        <v>25</v>
+      </c>
+      <c r="T143"/>
+      <c r="U143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="n">
+        <v>31</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>25</v>
+      </c>
+      <c r="H144" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" t="s">
+        <v>25</v>
+      </c>
+      <c r="J144" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" t="s">
+        <v>24</v>
+      </c>
+      <c r="L144" t="s">
+        <v>26</v>
+      </c>
+      <c r="M144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" t="s">
+        <v>25</v>
+      </c>
+      <c r="O144" t="s">
+        <v>24</v>
+      </c>
+      <c r="P144" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>25</v>
+      </c>
+      <c r="R144" t="s">
+        <v>24</v>
+      </c>
+      <c r="S144" t="s">
+        <v>26</v>
+      </c>
+      <c r="T144"/>
+      <c r="U144" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/processed/4th/MASTER_human-eval_4th.xlsx
+++ b/data/processed/4th/MASTER_human-eval_4th.xlsx
@@ -8343,7 +8343,7 @@
       </c>
       <c r="T119"/>
       <c r="U119" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="T120"/>
       <c r="U120" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="T121"/>
       <c r="U121" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
@@ -8534,7 +8534,7 @@
         <v>144</v>
       </c>
       <c r="U122" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="T123"/>
       <c r="U123" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="T124"/>
       <c r="U124" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125">
@@ -8725,7 +8725,7 @@
         <v>145</v>
       </c>
       <c r="U125" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="T134"/>
       <c r="U134" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
@@ -9487,7 +9487,7 @@
         <v>151</v>
       </c>
       <c r="U137" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138">
@@ -9552,7 +9552,7 @@
         <v>152</v>
       </c>
       <c r="U138" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="T140"/>
       <c r="U140" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
